--- a/UseCaseIScenarij/jubox.xlsx
+++ b/UseCaseIScenarij/jubox.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Mušterija</t>
   </si>
@@ -45,12 +45,6 @@
     <t>2. Upisivanje odgovarajućeg username i lozinke</t>
   </si>
   <si>
-    <t>6. Prikaz mogućnosti odabira kreiranja playliste, dodavanja pjesama, odabira playliste</t>
-  </si>
-  <si>
-    <t>7. Odabiranje kreiranje playliste</t>
-  </si>
-  <si>
     <t>8. Odabir jedne od prethodno kreiranih playlisti za određenu večer</t>
   </si>
   <si>
@@ -82,13 +76,91 @@
   </si>
   <si>
     <t>18. Uklanjanje opcije glasanja za tu pjesmu</t>
+  </si>
+  <si>
+    <t>Naziv:</t>
+  </si>
+  <si>
+    <t>Opis:</t>
+  </si>
+  <si>
+    <t>Preduvjeti</t>
+  </si>
+  <si>
+    <t>Posljedice - uspješan završetak</t>
+  </si>
+  <si>
+    <t>Posljedice - neuspješan završetak</t>
+  </si>
+  <si>
+    <t>Primarni akteri</t>
+  </si>
+  <si>
+    <t>Mušterija, zaposlenik</t>
+  </si>
+  <si>
+    <t>Proširenja/Alternative</t>
+  </si>
+  <si>
+    <t>Korištenje jubox-a</t>
+  </si>
+  <si>
+    <t>Mušterija se prijavljuje na stranicu, zatim odabire jubox, pomoću kojeg ima mogućnost da glasa za pjesmu sa playliste koja je u toku, što povećava šansu da će je sistem pustiti u toku večeri. Zaposlenici kreiraju playliste</t>
+  </si>
+  <si>
+    <t>Zaposlenik ima kreiran korisnički račun, postoji odabrana playlista</t>
+  </si>
+  <si>
+    <t>Zaposlenik uspješno kreira playlistu, uspješno odabire playlistu, mušterija uspješno glasa za željenu pjesmu</t>
+  </si>
+  <si>
+    <t>Playlista nije kreirana, nije odabrana za dato veče, mušterija nije glasala za pjesmu</t>
+  </si>
+  <si>
+    <t>7. Odabiranje playliste</t>
+  </si>
+  <si>
+    <t>6. Prikaz mogućnosti kreiranja playliste, dodavanja pjesama, odabira playliste</t>
+  </si>
+  <si>
+    <t>Alternativni scenario 1:</t>
+  </si>
+  <si>
+    <t>1. Korisnik upisuje svoje ime, prezime, email adresu, broj telefona, kreditnu karticu(opcionalno), željeni korisnički username i lozinku</t>
+  </si>
+  <si>
+    <t>2. Provjera jedinstvenosti username-a</t>
+  </si>
+  <si>
+    <t>3. Stvaranje odgovarajućeg računa</t>
+  </si>
+  <si>
+    <t>Zaposlenik nije evodentiran kao zaposlen u aplikaciji, pa to izvršava menadžer</t>
+  </si>
+  <si>
+    <t>1. Upisivanje imena, prezimena, email adrese, plate</t>
+  </si>
+  <si>
+    <t>2. Stvaranje odgovarajućeg računa</t>
+  </si>
+  <si>
+    <t>Nastavak na koraku 2. glavnog toka</t>
+  </si>
+  <si>
+    <t>Alternativni scenario 2:</t>
+  </si>
+  <si>
+    <t>Nastavak na koraku 10. glavnog toka</t>
+  </si>
+  <si>
+    <t>Korisnik nema već napravljen profil, pa se mora registrovati, na koraku 9. glavnog toka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +175,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -120,29 +264,432 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,380 +998,718 @@
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="48.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="78" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" thickTop="1"/>
+    <row r="13" spans="1:3" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:4" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+    <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="8.25" customHeight="1" thickBot="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="7.5" customHeight="1" thickBot="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" ht="7.5" customHeight="1" thickBot="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="C65" s="9"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="30">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A79" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="30"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A81" s="32"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+    </row>
+    <row r="82" spans="1:4" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A82" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="24"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="24"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="24"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A87" s="38"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A88" s="38"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="24"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="24"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A90" s="38"/>
+      <c r="B90" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="39"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A91" s="38"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="39"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A92" s="38"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="39"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A93" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="39"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A94" s="38"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="39"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A95" s="40"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="41"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="97" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A97" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="30"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A99" s="32"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+    </row>
+    <row r="100" spans="1:4" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A100" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A101" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="45"/>
+      <c r="D101" s="46"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A102" s="47"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A103" s="47"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="49"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A104" s="47"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="49"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A105" s="47"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="49"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A106" s="47"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="49"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A107" s="47"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="49"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A108" s="47"/>
+      <c r="B108" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="48"/>
+      <c r="D108" s="49"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A109" s="47"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A110" s="47"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="49"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A111" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="49"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A112" s="47"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="49"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A113" s="50"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
+  <mergeCells count="87">
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:D99"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:D81"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
